--- a/src/main/java/externalResources/testpack.xlsx
+++ b/src/main/java/externalResources/testpack.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrajput\eclipse-workspace\excelAppiumAutomationFramework\src\main\java\externalResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B5D9A7-AEBE-47CA-B267-AD52AE3AE99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652B68B0-0CE4-4577-80DB-09F94D1D8995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excelConfigTest" sheetId="1" r:id="rId1"/>
     <sheet name="generalStore" sheetId="2" r:id="rId2"/>
+    <sheet name="browserTest" sheetId="3" r:id="rId3"/>
+    <sheet name="apiDemosTests" sheetId="4" r:id="rId4"/>
+    <sheet name="stockAppTests" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
   <si>
     <t>y</t>
   </si>
@@ -77,6 +80,60 @@
   </si>
   <si>
     <t>Test Case</t>
+  </si>
+  <si>
+    <t>browserOpenTest</t>
+  </si>
+  <si>
+    <t>browserOpenTestNegativeFAIL</t>
+  </si>
+  <si>
+    <t>MiscellaneousTest</t>
+  </si>
+  <si>
+    <t>wifiSettings</t>
+  </si>
+  <si>
+    <t>testSwipe</t>
+  </si>
+  <si>
+    <t>testSwipeNegativeFAIL</t>
+  </si>
+  <si>
+    <t>testDragDrop</t>
+  </si>
+  <si>
+    <t>TestLongPress</t>
+  </si>
+  <si>
+    <t>scrollTest</t>
+  </si>
+  <si>
+    <t>rotateCopyPasteDirectStartTest</t>
+  </si>
+  <si>
+    <t>stockapp_tc_01</t>
+  </si>
+  <si>
+    <t>stockapp_tc_02</t>
+  </si>
+  <si>
+    <t>stockapp_tc_03</t>
+  </si>
+  <si>
+    <t>Login with register</t>
+  </si>
+  <si>
+    <t>Login anonymous</t>
+  </si>
+  <si>
+    <t>Add to watchlist</t>
+  </si>
+  <si>
+    <t>stockapp_tc_04</t>
+  </si>
+  <si>
+    <t>buy and sell stocks</t>
   </si>
   <si>
     <t/>
@@ -406,7 +463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -433,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>13</v>
@@ -452,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>13</v>
@@ -471,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>13</v>
@@ -482,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>13</v>
@@ -499,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393476E-F288-45FD-ABB2-A76E8B8F2F61}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>13</v>
@@ -540,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>14</v>
@@ -551,7 +610,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>14</v>
@@ -561,4 +620,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D450ABC-1932-4070-82DB-FC7881FF25F1}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.6328125"/>
+    <col min="2" max="2" customWidth="true" width="16.08984375"/>
+    <col min="3" max="3" customWidth="true" width="14.81640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45980D26-0625-42C1-BEB0-00A02733CD7B}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.6328125"/>
+    <col min="2" max="2" customWidth="true" width="16.08984375"/>
+    <col min="3" max="3" customWidth="true" width="14.81640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05EADC7-7289-4947-BE52-6D2A4BCF91C8}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.6328125"/>
+    <col min="2" max="2" customWidth="true" width="20.90625"/>
+    <col min="3" max="3" customWidth="true" width="14.81640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>